--- a/Marketing/mizzou.roomme.xlsx
+++ b/Marketing/mizzou.roomme.xlsx
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">

--- a/Marketing/mizzou.roomme.xlsx
+++ b/Marketing/mizzou.roomme.xlsx
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">

--- a/Marketing/mizzou.roomme.xlsx
+++ b/Marketing/mizzou.roomme.xlsx
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">

--- a/Marketing/mizzou.roomme.xlsx
+++ b/Marketing/mizzou.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>addi_beall.639</t>
+          <t>cali.staaaa24</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adnanlwan974a</t>
+          <t>raj5117babu</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pratik__fulzele_</t>
+          <t>mohitjatav4404</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>roseanealves693</t>
+          <t>kav_iya3690</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>top_follw20</t>
+          <t>mizzoubud</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ava.battelle</t>
+          <t>sadik_khan849</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>brianna_schulte</t>
+          <t>maria_liz736</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>peony_murgina967</t>
+          <t>garderndermgirl</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>salim.a308</t>
+          <t>name.isabhi1118</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>name.isabhi1118</t>
+          <t>sydneyy.graham</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bhutia.tshedup</t>
+          <t>lucicontreras69</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>clara.seibert</t>
+          <t>zlfryndni</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cj2405smith</t>
+          <t>1662.alfredo</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_ayanomar</t>
+          <t>machalranveer</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ryleescherder</t>
+          <t>miaa.young</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lucas.w.13</t>
+          <t>_megandan</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lucicontreras69</t>
+          <t>ava_beyler</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eme.teel</t>
+          <t>brahim.lfakir</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ratho.d5300</t>
+          <t>shahi_dkhan1969</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>krishno6820</t>
+          <t>adnanlwan974a</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>smart_rowdy____</t>
+          <t>alexandra_ridge</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>endruyanuar.1931</t>
+          <t>sarahhenry_05</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mizzoubud</t>
+          <t>frankiewalsh_</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ritik22919</t>
+          <t>krishno6820</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>aseeyah.ridwan</t>
+          <t>lilyybeard</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>avaapotterr</t>
+          <t>nahomy_1234589</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>radmira_kostava.9d1</t>
+          <t>samanthastifel</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>annaa.lazarz</t>
+          <t>11_nicolas_</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>juliaabyrnee</t>
+          <t>userunknown1446</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sweetypiepatisserie</t>
+          <t>aloralepage</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>anna._stanton</t>
+          <t>komaloo519</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>taylor.lee28</t>
+          <t>itz_me_the_gokul_</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ashleybroils</t>
+          <t>1__fake.account__1</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>munupatgiri2023</t>
+          <t>eva_dominguez05</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>dasha__ma_001</t>
+          <t>natalie.patt</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>shashi3192kumar</t>
+          <t>amjali7121</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sydneyfatland_</t>
+          <t>gaggadmk</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>shahi_dkhan1969</t>
+          <t>simpl_eboy6033</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>routavivukumar</t>
+          <t>its._.me_samar</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>_vansh_kashyap_uk08</t>
+          <t>82.52604180</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,207 +848,207 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>drewnichols_12</t>
+          <t>girls143598</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_megandan</t>
+          <t>maryamtazi516</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>delar_am223</t>
+          <t>mackenzie.shea_</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sydneyy.graham</t>
+          <t>natalie.burton.kc</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>pinkibiswas754</t>
+          <t>mayceeparke</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pulseira.amor</t>
+          <t>dan.ursu1</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>maddie.klizhova_764</t>
+          <t>mimi1427705_021_santos</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1oma.r2022</t>
+          <t>kanis_hka8989</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mr000249</t>
+          <t>annaa.lazarz</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>elizabethhaynes324</t>
+          <t>joannemiller131</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>biaaparecida95</t>
+          <t>adil.jouali.11</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sanju_bansal1737</t>
+          <t>gianna.corzine</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>madar123802</t>
+          <t>___ellie.johnson___</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hernandez.luiseduardodiaz</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>imyo.ur456</t>
+          <t>ramilezizov85</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ava_levine156</t>
+          <t>kedgar9_</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lazizbek00152</t>
+          <t>hasan_asllanii</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>allie.bert</t>
+          <t>anagul1505</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>coleman.loving</t>
+          <t>deepakbohra1070</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>rajwade.rudan</t>
+          <t>chakroborty3808</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>keelinnanderson</t>
+          <t>dhanrajkumar_843327</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>opraskiniya_manokha.d3c</t>
+          <t>sevi.nch3665</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nandini_cute_123456</t>
+          <t>rajeshkumargond413</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>josselyn.hamilton</t>
+          <t>vinoth3900kumar</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>hasan_asllanii</t>
+          <t>czvetoslava_shmidova.c11</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zalla_onkina_bd3</t>
+          <t>burastan_rechnova.e36</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>stlnienhaus</t>
+          <t>ayep_20</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>samklein_820</t>
+          <t>praskofiya_pyzina_59a</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>gertraud_koznina_2a9</t>
+          <t>__34pandit__</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ad.enike374</t>
+          <t>taylor.lee28</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>chakroborty3808</t>
+          <t>roseanealves693</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>jimejime_6</t>
+          <t>widya.kesya</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>14na.thaly</t>
+          <t>lauren__bruss</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>anwen.wimsett_8a3</t>
+          <t>sydneyfatland_</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>pekenna_shitzu</t>
+          <t>lilhare4057</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>onana_kobteva_db4</t>
+          <t>ccccccccc4223</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>angela.maria01__</t>
+          <t>casino.nicole</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>enya_may</t>
+          <t>dasha__ma_001</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>guptadurgesh3702</t>
+          <t>subodhchoudhary811</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hannahjones.1</t>
+          <t>sureshmondal151</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>nwillen74</t>
+          <t>sahilmane511</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vinoth3900kumar</t>
+          <t>tasoula_62</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>itz_me_the_gokul_</t>
+          <t>paytonjohansen</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jenkirsch</t>
+          <t>_avaajane</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>courtneyjlocke</t>
+          <t>racheliebling</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>alaa.loly00</t>
+          <t>yordancamero</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sk_lover_kanha_01</t>
+          <t>mithun112261</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>senu_sandhii_</t>
+          <t>mar.jona1717</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>arobertson05</t>
+          <t>its_ramandeepkaur_thind</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>syahrizan.__</t>
+          <t>ad.enike374</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>zaki.zaki957</t>
+          <t>charlizecasual</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>frete.peixes60</t>
+          <t>isabel.brauhn</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>maureen_elia4</t>
+          <t>mallory.gros</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>catalina.lockman_d5e</t>
+          <t>ellakulefsky</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>md_wasim__004</t>
+          <t>mich_as123</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4321.nandakishore</t>
+          <t>itz.shiva14x</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>kehlanii_2tacttt</t>
+          <t>1oma.r2022</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>nella.degoeva.1a5</t>
+          <t>opanasiya_kiyamova_5b6</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bishalmahali19</t>
+          <t>dinamica22jul</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>shymonpendosakelaskakap</t>
+          <t>anteshprajapati</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>karlapradooo</t>
+          <t>vikashkumarray394</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>erica.waddington</t>
+          <t>deepumattu16</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cassieodle</t>
+          <t>np.9678</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>khalvariya_shutkina_c59</t>
+          <t>shashi3192kumar</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>audreyzieglerr</t>
+          <t>zxc_vb9928</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>latyshskoe_bender_e27</t>
+          <t>___sharukh____99</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>revas.da</t>
+          <t>agstn_879</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lucas.shug</t>
+          <t>skgemryt</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>abod_fnk</t>
+          <t>dasha.sandomirsky</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>refikaaylmz</t>
+          <t>yortysydney</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ollye__01</t>
+          <t>czvetiniya_elopova.9e7</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>rajankumar.1998</t>
+          <t>shinymathew10</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ri.ddhi6734</t>
+          <t>cj2405smith</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2446_deepu</t>
+          <t>fhianpoiyo1</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>rakeshpawar7017</t>
+          <t>elizabethhaynes324</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kar.ankumar1205</t>
+          <t>abolfazlb254</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sevi.nch3665</t>
+          <t>rockyk249</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>dzhumagyulkedrova_410</t>
+          <t>rakeshpawar7017</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>raha._.1903</t>
+          <t>veramia730</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ava_beyler</t>
+          <t>imyo.ur456</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>luispalacioalcazar</t>
+          <t>sliva_marly_art</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>isabella.necholeee</t>
+          <t>surajzack650053</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>itsme_sakshi5271</t>
+          <t>delar_am223</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>thakurjiramsagar</t>
+          <t>nwillen74</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>brea.peterson</t>
+          <t>yenis2793</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>calin.yoch</t>
+          <t>castroalonsoyander</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>fredzyamanchester_d43</t>
+          <t>brianna_schulte</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>josevargas7302</t>
+          <t>sohamniraj</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>dylan_hoyt06</t>
+          <t>manishabansode34</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>rhiannammiller</t>
+          <t>eme.teel</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>aakash___mishra___2345</t>
+          <t>shivani.soni963</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>hannazz_10</t>
+          <t>val_galligan</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rashid.sofizade</t>
+          <t>sa_aunde_12</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>joelsouza0101</t>
+          <t>ias_qwe</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>its._.me_samar</t>
+          <t>smart_rowdy____</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>carlylloyd05</t>
+          <t>pulseira.amor</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>grace.buchheit</t>
+          <t>mustafa.hebaabo</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>aloralepage</t>
+          <t>munawarkhan304</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>gracas9452</t>
+          <t>00yasmeen321</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1__fake.account__1</t>
+          <t>isabella.necholeee</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>shinymathew10</t>
+          <t>rajankumar.1998</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>maria_liz736</t>
+          <t>dannyolearyy</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>bhagti_rash_radha</t>
+          <t>jay.__shree_ram_</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>nesa.sh10</t>
+          <t>wa_hid1374</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tacos_don_chuy876</t>
+          <t>endruyanuar.1931</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>reena782yadav</t>
+          <t>avashaverss</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>praskofiya_pyzina_59a</t>
+          <t>midobenrached</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>katik_marueva93e</t>
+          <t>sigma_chotu1</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>yortysydney</t>
+          <t>riya145756</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>alexjanenienhaus</t>
+          <t>m_bisen_81</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dominka_luzhkinad10</t>
+          <t>angela.maria01__</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>akash_ak_1423</t>
+          <t>samklein_820</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>elsa.feld</t>
+          <t>laura_carlton_01</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>mollyspayth</t>
+          <t>grace.buchheit</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lilyybeard</t>
+          <t>senu_sandhii_</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>veenasingh421</t>
+          <t>lina_khedhri1234</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ellakulefsky</t>
+          <t>sydneyhedd</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>machalranveer</t>
+          <t>abu_______bakkar</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sufiyan_khan_109</t>
+          <t>canhyu_0680</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ajay.sahani3905</t>
+          <t>halizah1125</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>isabel.brauhn</t>
+          <t>sanju_bansal1737</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>jessieowen334</t>
+          <t>metamorfose_psicoo.com.br</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>halizah1125</t>
+          <t>drewnichols_12</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>anteshprajapati</t>
+          <t>abrar97722</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>gagan_62719</t>
+          <t>sk_lover_kanha_01</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>lisafeta_luttrell.2c3</t>
+          <t>padda.87</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>lauren__bruss</t>
+          <t>taylin.kramer</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cshilpa522</t>
+          <t>wawa__z77</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>cali.staaaa24</t>
+          <t>jimejime_6</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>zxc_vb9928</t>
+          <t>chand5566khan</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>asifasofasif</t>
+          <t>jatinrajput1762</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>its_sameer_kd_03</t>
+          <t>salim__ansari__123</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>anilbesra481082</t>
+          <t>gabbievoelker</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>mar.jona1717</t>
+          <t>prem.raj4807</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>kendala2</t>
+          <t>ariannaphillips_</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>cuty_neha_01</t>
+          <t>jessieowen334</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>mohd.sahil901</t>
+          <t>nudura_satcher402</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>laura_carlton_01</t>
+          <t>antigua.redneva_df2</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>gaggadmk</t>
+          <t>ashleybroils</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>manishabansode34</t>
+          <t>mohd.sahil901</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>lekzy_neatwear</t>
+          <t>pekenna_shitzu</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>artuh_gabriel_23</t>
+          <t>_ayanomar</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>samanthastifel</t>
+          <t>paduhavdar1234</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>festival_lixao</t>
+          <t>lokomo516</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>claudia0026</t>
+          <t>reena782yadav</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3125lisa3125</t>
+          <t>ginagomez5631</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>its_ramandeepkaur_thind</t>
+          <t>ravichaubey184</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>simpl_eboy6033</t>
+          <t>kendala2</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1662.alfredo</t>
+          <t>offcial_buhari</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>chand5566khan</t>
+          <t>cuty_neha_01</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>pevoniya_podurra_47a</t>
+          <t>jackhutson24</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>opanasiya_kiyamova_5b6</t>
+          <t>madar123802</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>abolfazlb254</t>
+          <t>aseeyah.ridwan</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>averiecrnko</t>
+          <t>anna._stanton</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>mr.jrc1738</t>
+          <t>pinkibiswas754</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>yordancamero</t>
+          <t>abhaysinghrathore666</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sohamniraj</t>
+          <t>akash_ak_1423</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>metamorfose_psicoo.com.br</t>
+          <t>cathr_ine201</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>mimi1427705_021_santos</t>
+          <t>parkersmith63</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>karak5753</t>
+          <t>14na.thaly</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>natalie.patt</t>
+          <t>claudia0026</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>anna.olearyy</t>
+          <t>hernandez.luiseduardodiaz</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>dasha.sandomirsky</t>
+          <t>sevda.m0995</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>hatun_teyze</t>
+          <t>acv_2023</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>charlizecasual</t>
+          <t>dile_ep176</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>agstn_879</t>
+          <t>salim.a308</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>jackhutson24</t>
+          <t>marka_m5020</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>nudura_satcher402</t>
+          <t>mr.jrc1738</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>maryamtazi516</t>
+          <t>ankit_123416</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>pompeyayuneva.5b1</t>
+          <t>juniormartinmulwa</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>avashaverss</t>
+          <t>juliaabyrnee</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>taylin.kramer</t>
+          <t>lovers_fortuner_0012</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>np.9678</t>
+          <t>yadavanshi627354</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>pilipa_pilika.2da</t>
+          <t>nesa.sh10</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>_avaajane</t>
+          <t>denjer318</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>komaloo519</t>
+          <t>wulan.antia</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>mackenzie.shea_</t>
+          <t>clara_wesss</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>deepa.kkumar8268</t>
+          <t>mul.9404</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>___sharukh____99</t>
+          <t>ryleescherder</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>00yasmeen321</t>
+          <t>sydsgrayson</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>roje_n2023</t>
+          <t>raj.789078900</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>castroalonsoyander</t>
+          <t>ceciliaantista</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>setani72</t>
+          <t>saurabh_parmar45</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ariannaphillips_</t>
+          <t>roje_n2023</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jatinrajput1762</t>
+          <t>lelah.lawrencee</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>cathr_ine201</t>
+          <t>__vishal___mogiya___3906___</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>wulan.antia</t>
+          <t>pilipa_pilika.2da</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jacob._duff</t>
+          <t>ava_levine156</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>burastan_rechnova.e36</t>
+          <t>cshilpa522</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>padda.87</t>
+          <t>lekzy_neatwear</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,140 +2748,10 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>pawan129771</t>
+          <t>ravi.1237598</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>kedgar9_</t>
-        </is>
-      </c>
-      <c r="B233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>lina_khedhri1234</t>
-        </is>
-      </c>
-      <c r="B234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>offcial_buhari</t>
-        </is>
-      </c>
-      <c r="B235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>dan.ursu1</t>
-        </is>
-      </c>
-      <c r="B236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>kunal.gurjar341</t>
-        </is>
-      </c>
-      <c r="B237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>tasoula_62</t>
-        </is>
-      </c>
-      <c r="B238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>jackkcason</t>
-        </is>
-      </c>
-      <c r="B239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>girls143598</t>
-        </is>
-      </c>
-      <c r="B240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>asdfghjklqwertyuiop6125</t>
-        </is>
-      </c>
-      <c r="B241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>82.52604180</t>
-        </is>
-      </c>
-      <c r="B242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>__34pandit__</t>
-        </is>
-      </c>
-      <c r="B243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>ccccccccc4223</t>
-        </is>
-      </c>
-      <c r="B244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>mustafa.hebaabo</t>
-        </is>
-      </c>
-      <c r="B245" t="b">
         <v>0</v>
       </c>
     </row>
